--- a/biology/Biologie cellulaire et moléculaire/Inné/Inné.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Inné/Inné.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Inn%C3%A9</t>
+          <t>Inné</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un caractère biologique est dit inné lorsqu'il est déterminé dès la naissance de l'individu. Cela n'implique pas que ce caractère soit observable dès la naissance. En effet, il peut s'agir d'un trait qui ne s'exprime que dans certaines conditions ou à certaines périodes au cours de l'ontogenèse d'un organisme. Par exemple, la pilosité est un caractère inné qui n'apparaît véritablement qu'à la puberté chez l'être humain. En général, un caractère inné est contrôlé par un ou plusieurs gènes, mais il peut aussi être lié à des facteurs liés à l'environnement biophysique et biochimique rencontré par le fœtus pendant la grossesse. 
 On oppose souvent inné et acquis mais ces deux concepts ne sont en réalité pas exclusifs l'un de l'autre.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Inn%C3%A9</t>
+          <t>Inné</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Les différents sens de inné</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans différents domaines, et notamment dans l'étude des comportements animaux (éthologie) ou humains (psychologie), on oppose traditionnellement caractères innés et caractères acquis selon la distinction suivante : 
 l'inné désignant les traits qui dépendent du patrimoine héréditaire de l'espèce. En éthologie, on parle aussi d'instincts pour désigner des comportements ainsi spécifiés par les gènes ;
